--- a/E-Commerce Sales Dataset.xlsx
+++ b/E-Commerce Sales Dataset.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Products\Analytics Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79773C9-0EFA-4A67-810E-C6AD3046A375}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382584C4-44E7-4C79-AAC7-DB2EA8120E98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer" sheetId="4" r:id="rId2"/>
+    <sheet name="Products" sheetId="2" r:id="rId3"/>
+    <sheet name="Location" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Customer!$A$1:$A$14</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="99">
   <si>
     <t>Customer ID</t>
   </si>
@@ -36,21 +42,9 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Total Price</t>
-  </si>
-  <si>
     <t>Payment mode</t>
   </si>
   <si>
@@ -181,6 +175,159 @@
   </si>
   <si>
     <t>Cancelled</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Location ID</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>l5</t>
+  </si>
+  <si>
+    <t>l10</t>
+  </si>
+  <si>
+    <t>l19</t>
+  </si>
+  <si>
+    <t>l21</t>
+  </si>
+  <si>
+    <t>l24</t>
+  </si>
+  <si>
+    <t>l33</t>
+  </si>
+  <si>
+    <t>l38</t>
+  </si>
+  <si>
+    <t>l29</t>
+  </si>
+  <si>
+    <t>l20</t>
+  </si>
+  <si>
+    <t>l31</t>
+  </si>
+  <si>
+    <t>l87</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Mahrashtra</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Purchase Rate</t>
+  </si>
+  <si>
+    <t>Sales Rate</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -499,555 +646,895 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
         <v>3</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
       </c>
       <c r="F2">
         <v>40</v>
       </c>
-      <c r="G2">
-        <v>260</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45413</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="1">
-        <v>45413</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
         <v>2</v>
-      </c>
-      <c r="E3">
-        <v>256</v>
       </c>
       <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3">
-        <v>487</v>
-      </c>
-      <c r="H3">
-        <v>40</v>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45394</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="1">
-        <v>45394</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
         <v>4</v>
-      </c>
-      <c r="E4">
-        <v>320</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>1280</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45398</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="1">
-        <v>45398</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
         <v>1</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
-      <c r="G5">
-        <v>28</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45399</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="1">
-        <v>45399</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
         <v>5</v>
-      </c>
-      <c r="E6">
-        <v>588</v>
       </c>
       <c r="F6">
         <v>65</v>
       </c>
-      <c r="G6">
-        <v>2875</v>
-      </c>
-      <c r="H6">
-        <v>55</v>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45424</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="1">
-        <v>45424</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
         <v>9</v>
-      </c>
-      <c r="E7">
-        <v>660</v>
       </c>
       <c r="F7">
         <v>41</v>
       </c>
-      <c r="G7">
-        <v>5899</v>
-      </c>
-      <c r="H7">
-        <v>69</v>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45459</v>
       </c>
       <c r="J7" t="s">
         <v>46</v>
       </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="1">
-        <v>45459</v>
-      </c>
-      <c r="M7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
         <v>2</v>
-      </c>
-      <c r="E8">
-        <v>900</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>1800</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45499</v>
       </c>
       <c r="J8" t="s">
         <v>46</v>
       </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="1">
-        <v>45499</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
         <v>4</v>
-      </c>
-      <c r="E9">
-        <v>1250</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>5000</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45407</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="1">
-        <v>45407</v>
-      </c>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
         <v>8</v>
-      </c>
-      <c r="E10">
-        <v>28</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>224</v>
-      </c>
-      <c r="H10">
-        <v>120</v>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45514</v>
       </c>
       <c r="J10" t="s">
         <v>46</v>
       </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="1">
-        <v>45514</v>
-      </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
         <v>1</v>
-      </c>
-      <c r="E11">
-        <v>5000</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>5000</v>
-      </c>
-      <c r="H11">
-        <v>1000</v>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45546</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="1">
-        <v>45546</v>
-      </c>
-      <c r="M11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
         <v>8</v>
-      </c>
-      <c r="E12">
-        <v>630</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>5040</v>
-      </c>
-      <c r="H12">
-        <v>1000</v>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45697</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
-      <c r="K12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="1">
-        <v>45697</v>
-      </c>
-      <c r="M12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
         <v>4</v>
-      </c>
-      <c r="E13">
-        <v>870</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>3480</v>
-      </c>
-      <c r="H13">
-        <v>850</v>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45689</v>
       </c>
       <c r="J13" t="s">
         <v>46</v>
       </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="1">
-        <v>45689</v>
-      </c>
-      <c r="M13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
         <v>2</v>
-      </c>
-      <c r="E14">
-        <v>555</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>1110</v>
-      </c>
-      <c r="H14">
-        <v>110</v>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45723</v>
       </c>
       <c r="J14" t="s">
         <v>46</v>
       </c>
-      <c r="K14" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D650C28-5124-4DE3-8C0E-6019DEEE2D4F}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777D9697-6C49-4C44-8520-8917B707279E}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="1">
-        <v>45723</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
         <v>50</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>110</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4FCA53-6DEF-4E43-AD90-456277B43192}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
